--- a/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2510C-7108-4E64-BFD9-914610CEFF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5C63A2-7EE8-4699-BA48-34E21507D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="735" windowWidth="16305" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10575" yWindow="1380" windowWidth="16305" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>Use the generalized equation just above this question.  'n' is the number of time steps, which in this case are years.</t>
+  </si>
+  <si>
+    <t>Imagine a complex differential equation that you don't know how to solve, like dx/dt = sin(e^t) + cos(x).  Which of the following is the *kind* of thing that could be a solution to the equation?</t>
+  </si>
+  <si>
+    <t>A curve on a plot where every 't' value has only 1 'x' value</t>
+  </si>
+  <si>
+    <t>x = 12t^2 + sin(6t)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = cos(At) + B sin(t^2) </t>
+  </si>
+  <si>
+    <t>Yep!  This could be a general solution.   The function would be a solution no matter what A and B were.</t>
+  </si>
+  <si>
+    <t>Yep! This could be a particular solution: a single function that yields a true statement when it is plugged into the differential equation</t>
+  </si>
+  <si>
+    <t>The solution to a differential equation is a function, not just a value.</t>
+  </si>
+  <si>
+    <t>Yep! This is just a visual representation of a function: the slope of this curve would be equal to sin(e^t) + cos(x) at every point on the curve.</t>
   </si>
 </sst>
 </file>
@@ -621,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -665,10 +689,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +703,63 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>171.5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -872,7 +952,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5C63A2-7EE8-4699-BA48-34E21507D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA171266-2144-434F-8F41-8A2771CD08DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="1380" windowWidth="16305" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="4305" yWindow="525" windowWidth="20685" windowHeight="13995" activeTab="3" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
     <sheet name="1_" sheetId="7" r:id="rId2"/>
-    <sheet name="2_" sheetId="8" r:id="rId3"/>
-    <sheet name="3_" sheetId="9" r:id="rId4"/>
+    <sheet name="2_" sheetId="9" r:id="rId3"/>
+    <sheet name="3_" sheetId="8" r:id="rId4"/>
     <sheet name="4_MultC" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="6" r:id="rId6"/>
     <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -232,6 +232,42 @@
   </si>
   <si>
     <t>Yep! This is just a visual representation of a function: the slope of this curve would be equal to sin(e^t) + cos(x) at every point on the curve.</t>
+  </si>
+  <si>
+    <t>Does the statement below better describe a continuous or a discrete model?;</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>Continous</t>
+  </si>
+  <si>
+    <t>The dependent variable in the model "jumps" in value from one time step to the next.</t>
+  </si>
+  <si>
+    <t>On a plot, the dependent variable is best represented as separated data points.</t>
+  </si>
+  <si>
+    <t>A continuous model would best be represented as a continous curve.</t>
+  </si>
+  <si>
+    <t>A discrete model only has a value at each time step--not in between time steps.</t>
+  </si>
+  <si>
+    <t>The dependent variable in the model is constantly changing through time.</t>
+  </si>
+  <si>
+    <t>The best mathematical expression for the model is a differential equation.</t>
+  </si>
+  <si>
+    <t>A discrete model would be better represented by a "difference equation."</t>
+  </si>
+  <si>
+    <t>No, this could not be a solution to a differential equation.</t>
+  </si>
+  <si>
+    <t>Yes, this could be a solution to a differential equation</t>
   </si>
 </sst>
 </file>
@@ -688,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,60 +740,69 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>171.5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +825,69 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>171.5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1038,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA171266-2144-434F-8F41-8A2771CD08DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D508F-F2D8-4F17-9D3E-E0DC31166235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="525" windowWidth="20685" windowHeight="13995" activeTab="3" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="5865" yWindow="1245" windowWidth="20685" windowHeight="13995" activeTab="5" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
     <sheet name="1_" sheetId="7" r:id="rId2"/>
     <sheet name="2_" sheetId="9" r:id="rId3"/>
     <sheet name="3_" sheetId="8" r:id="rId4"/>
-    <sheet name="4_MultC" sheetId="1" r:id="rId5"/>
+    <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="6" r:id="rId6"/>
     <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
     <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
@@ -43,19 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
-  <si>
-    <t>What is the color of the car?</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>Black</t>
   </si>
@@ -69,9 +57,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Obviously it's not red.</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -81,9 +66,6 @@
     <t>You're stupid.</t>
   </si>
   <si>
-    <t>So close. But not really that close.</t>
-  </si>
-  <si>
     <t>Leeway</t>
   </si>
   <si>
@@ -165,33 +147,6 @@
     <t>Red herring 2</t>
   </si>
   <si>
-    <t>Match the term with the correct description</t>
-  </si>
-  <si>
-    <t>Independent Variable</t>
-  </si>
-  <si>
-    <t>State Variable</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>A variable that describes the conditions of the system at a moment in time</t>
-  </si>
-  <si>
-    <t>A variable that affects the behavior of the system but that is being held constant in this model</t>
-  </si>
-  <si>
-    <t>A variable that measures the relative success of system with a set of particular conditions</t>
-  </si>
-  <si>
-    <t>A variable that can be changed by the engineer or scientist and that affects the behavior of the system</t>
-  </si>
-  <si>
-    <t>A variable that affects the behavior of the system but that is ignored or overlooked</t>
-  </si>
-  <si>
     <t>Comment on State</t>
   </si>
   <si>
@@ -268,6 +223,42 @@
   </si>
   <si>
     <t>Yes, this could be a solution to a differential equation</t>
+  </si>
+  <si>
+    <t>Consider the differential equation dx/dt = cos(Ct), where C is a positive constant.   Remember that dx/dt can be interpreted visually as a slope.  What must the slope of the solution be at t = 0?</t>
+  </si>
+  <si>
+    <t>A positive value that depends on C</t>
+  </si>
+  <si>
+    <t>A negative value that depends on C</t>
+  </si>
+  <si>
+    <t>Yep!  Cos(0) = 1.0, so the slope of the solution at t = 0 must be 1.0</t>
+  </si>
+  <si>
+    <t>What is the slope of Cos(C * 0)?</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>You  might recognize that cos(Ct) would change from positive to negative and back over time: so only plots A and E have a slope that changes signs.  But  plot E has a slope of 0 at t = 0.</t>
+  </si>
+  <si>
+    <t>This has no defined slope at t =  0</t>
+  </si>
+  <si>
+    <t>This has a slope of 0 at t = 0.</t>
+  </si>
+  <si>
+    <t>Consider the differential equation dx/dt = cos(Ct), where C is a positive constant.   Now that you know the slope at t = 0, which of the plots in the image could be a solution to differential equation?  Consider what will happen to the slope of the solution over time.</t>
+  </si>
+  <si>
+    <t>Yep! This looks like it could have a slope of 1.0 at t = 0.   In addition, cos(Ct) would change from positive to negative and back over time: only plots A and E have a slope that changes signs with time, so only they could be solutions here.</t>
+  </si>
+  <si>
+    <t>This might have a slope of 1.0 at t = 0.  But cos(Ct) would change from positive to negative and back over time: only plots A and E have a slope that changes signs over time, so only those two plots could be a solution here.</t>
   </si>
 </sst>
 </file>
@@ -650,13 +641,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +660,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -696,13 +687,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,7 +706,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -742,60 +733,60 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -828,27 +819,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -856,35 +847,35 @@
         <v>171.5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -894,10 +885,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,59 +899,70 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>-1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -972,78 +974,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C48AF-819E-4283-8F6D-9ECFCE33CE5A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,68 +1079,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1160,75 +1167,75 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D508F-F2D8-4F17-9D3E-E0DC31166235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE299C-4AD5-45BB-8ECF-31F8B362D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1245" windowWidth="20685" windowHeight="13995" activeTab="5" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="5865" yWindow="1245" windowWidth="20685" windowHeight="13995" activeTab="7" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="3_" sheetId="8" r:id="rId4"/>
     <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="6" r:id="rId6"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
-    <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
+    <sheet name="6_" sheetId="4" r:id="rId7"/>
+    <sheet name="7_" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
-  <si>
-    <t>Black</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>Correct</t>
   </si>
@@ -60,97 +57,34 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>You're brilliant!</t>
-  </si>
-  <si>
-    <t>You're stupid.</t>
-  </si>
-  <si>
     <t>Leeway</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>What is the best kind of bear?</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Polar</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
-    <t>Battlestar Galactica.</t>
-  </si>
-  <si>
-    <t>Terms</t>
-  </si>
-  <si>
     <t>Correct order of definitions</t>
   </si>
   <si>
     <t>Definitions</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Metric answer</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Library answer</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>State answer</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Red herring 1</t>
-  </si>
-  <si>
-    <t>Function defintion</t>
-  </si>
-  <si>
-    <t>Red herring 2</t>
-  </si>
-  <si>
-    <t>Comment on State</t>
-  </si>
-  <si>
-    <t>Comment on "Function"</t>
+    <t>Parameter</t>
   </si>
   <si>
     <t>If our initial population is 6 billion, and the constant annual growth is 0.15 billion, what is the population (in billions) after 20 years?</t>
@@ -252,13 +186,76 @@
     <t>This has a slope of 0 at t = 0.</t>
   </si>
   <si>
-    <t>Consider the differential equation dx/dt = cos(Ct), where C is a positive constant.   Now that you know the slope at t = 0, which of the plots in the image could be a solution to differential equation?  Consider what will happen to the slope of the solution over time.</t>
-  </si>
-  <si>
     <t>Yep! This looks like it could have a slope of 1.0 at t = 0.   In addition, cos(Ct) would change from positive to negative and back over time: only plots A and E have a slope that changes signs with time, so only they could be solutions here.</t>
   </si>
   <si>
     <t>This might have a slope of 1.0 at t = 0.  But cos(Ct) would change from positive to negative and back over time: only plots A and E have a slope that changes signs over time, so only those two plots could be a solution here.</t>
+  </si>
+  <si>
+    <t>Consider the differential equation dx/dt = cos(Ct), where C is a positive constant.   Now that you know the slope at t = 0, which of the plots in the image could be a solution to the differential equation?  Consider what will happen to the slope of the solution over time.</t>
+  </si>
+  <si>
+    <t>Would Newton's Law of Cooling be a good model for each of these situations?</t>
+  </si>
+  <si>
+    <t>Yes, Newton's Law of Cooling would give decent results.</t>
+  </si>
+  <si>
+    <t>No, the simplifications of the Law of Cooling would create large errors.</t>
+  </si>
+  <si>
+    <t>A frying pan cooling down to room temperature</t>
+  </si>
+  <si>
+    <t>A satelite heating up upon reentering the atmosphere</t>
+  </si>
+  <si>
+    <t>A pond of water cooling in the open air after being used to drive a steam turbine</t>
+  </si>
+  <si>
+    <t>Newton's law models temperature change based on temperature difference.  But this heating process is driven by friction with the atmosphere.</t>
+  </si>
+  <si>
+    <t>A hot ember radiating heat to the night sky</t>
+  </si>
+  <si>
+    <t>Newton's law doesn't do very well with radiation, which is physically a very different process than convection or conduction</t>
+  </si>
+  <si>
+    <t>We have the structure of our model laid out.  What type of variable is each one of these?</t>
+  </si>
+  <si>
+    <t>Mass of coffee</t>
+  </si>
+  <si>
+    <t>Temperature of the coffee during the drive</t>
+  </si>
+  <si>
+    <t>Temperature of the coffee at the end of the simulation</t>
+  </si>
+  <si>
+    <t>Specific heat of the coffee</t>
+  </si>
+  <si>
+    <t>Time that we add the milk to the coffee</t>
+  </si>
+  <si>
+    <t>State variable</t>
+  </si>
+  <si>
+    <t>Independent variable</t>
+  </si>
+  <si>
+    <t>This is an assumed constant for this model</t>
+  </si>
+  <si>
+    <t>This is what we are keeping track of during the simulation</t>
+  </si>
+  <si>
+    <t>This is how we will decide which approach is best: how hot is our coffee when we drink it?</t>
+  </si>
+  <si>
+    <t>This is what we alter to try to optimize the system.</t>
   </si>
 </sst>
 </file>
@@ -641,13 +638,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,7 +657,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -687,13 +684,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,7 +703,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +716,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,60 +730,60 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,27 +816,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -847,35 +844,35 @@
         <v>171.5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -901,13 +898,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,32 +934,32 @@
         <v>-1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -974,9 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C48AF-819E-4283-8F6D-9ECFCE33CE5A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -989,68 +984,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,73 +1069,63 @@
     <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1152,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,78 +1150,86 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE299C-4AD5-45BB-8ECF-31F8B362D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1EE4B-675D-48DB-B388-0D58AD334C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1245" windowWidth="20685" windowHeight="13995" activeTab="7" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="5865" yWindow="1245" windowWidth="20685" windowHeight="13995" activeTab="8" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="5_" sheetId="6" r:id="rId6"/>
     <sheet name="6_" sheetId="4" r:id="rId7"/>
     <sheet name="7_" sheetId="5" r:id="rId8"/>
+    <sheet name="8_" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>Correct</t>
   </si>
@@ -256,6 +257,36 @@
   </si>
   <si>
     <t>This is what we alter to try to optimize the system.</t>
+  </si>
+  <si>
+    <t>Look at the discretized equation for deltaT.  Which factors would cause the coffee to cool more quickly over the length of the simulation?</t>
+  </si>
+  <si>
+    <t>A higher T_env</t>
+  </si>
+  <si>
+    <t>A higher initial T_init</t>
+  </si>
+  <si>
+    <t>A larger r</t>
+  </si>
+  <si>
+    <t>This will cause the coffee to cool more quickly</t>
+  </si>
+  <si>
+    <t>This will not cause the coffee to cool more quickly</t>
+  </si>
+  <si>
+    <t>A larger time step dt</t>
+  </si>
+  <si>
+    <t>This is a bit of a trick.  While a large dt will cause a bigger change in a single time step, there will be fewer time steps in the whole simulation.  dt should not significantly affect the cooling rate (until it gets much too big).</t>
+  </si>
+  <si>
+    <t>This will lower the temperature difference between the air and the coffee, and the coffee will cool slower</t>
+  </si>
+  <si>
+    <t>Factors that might lead to a larger r include more convective cooling or poorer insulation.</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1234,4 +1265,90 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43685525-53DD-4FD6-B824-F75C315D0ACC}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F5:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1EE4B-675D-48DB-B388-0D58AD334C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068A723C-BE84-4B18-9A3A-4D9623C76E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1245" windowWidth="20685" windowHeight="13995" activeTab="8" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="690" yWindow="1125" windowWidth="20685" windowHeight="13995" activeTab="10" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="6_" sheetId="4" r:id="rId7"/>
     <sheet name="7_" sheetId="5" r:id="rId8"/>
     <sheet name="8_" sheetId="10" r:id="rId9"/>
+    <sheet name="9_" sheetId="11" r:id="rId10"/>
+    <sheet name="10_" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Correct</t>
   </si>
@@ -287,6 +289,42 @@
   </si>
   <si>
     <t>Factors that might lead to a larger r include more convective cooling or poorer insulation.</t>
+  </si>
+  <si>
+    <t>Look at the generalized for of Newton's Law of cooling.  It should look like one of the differential equations we used in the world population notebooks.  Which type of model is Newton's Law of cooling?</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Proportional</t>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>Yep!   The exponential form of the world population model was dp/dt = alpha*p + C.  The key difference is that alpha was positive, but 'r' in Newton's Law is negative.</t>
+  </si>
+  <si>
+    <t>The image above entitled "Possible Particular Solutions" describes the physical system (i.e. coffee sitting in an environment).  What does each of these lines represent?</t>
+  </si>
+  <si>
+    <t>The temperature of a cup of coffee over time based on different initial temperatures</t>
+  </si>
+  <si>
+    <t>The temperature of a cup of coffee over time based on different 'r' values</t>
+  </si>
+  <si>
+    <t>The temperature of a cup of coffee over time based on different different mixing times</t>
+  </si>
+  <si>
+    <t>Yep!  No matter what the initial temperature, the coffee moves toward the equilibrium temperature of 22 degrees</t>
+  </si>
+  <si>
+    <t>R values would affect the steepness of the curves, but in that case, all of the curves would start at the same initial temperature.</t>
+  </si>
+  <si>
+    <t>This shows the changing temperature of a cup of coffee with no mixing involved.  If there was mixing, you'd see a sudden change of temperature at the moment of mixing.</t>
   </si>
 </sst>
 </file>
@@ -696,6 +734,130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E093B755-9AB8-4E1B-8B0C-EEE31300B75D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="72" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2044596-6F70-4740-B23F-AD187D852577}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="72" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:C3"/>
@@ -916,7 +1078,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43685525-53DD-4FD6-B824-F75C315D0ACC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F5:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
